--- a/va_facility_data_2025-02-20/Clovis VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Clovis%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Clovis VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Clovis%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R222e19c94d65410a916cfce5a88773be"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ref7f15b1ce3641dc9d6d8860ce75dbeb"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra2c5acd6ac714c01bd531eb1935126a9"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb6b2390c9f0346b38b96c8afd1130788"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra9fc345271ae4cc480190a8a4f95a78e"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Red62d6e343754af29f5f1710571d50d9"/>
   </x:sheets>
 </x:workbook>
 </file>
